--- a/generated_output/temp/us-core-practitioner.xlsx
+++ b/generated_output/temp/us-core-practitioner.xlsx
@@ -178,7 +178,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -197,7 +197,7 @@
     <t>Practitioner.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Practitioner.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -232,7 +232,7 @@
     <t>Practitioner.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -290,7 +290,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -316,7 +316,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -351,7 +351,7 @@
     <t>Practitioner.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -389,7 +389,7 @@
     <t>Practitioner.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -454,7 +454,7 @@
     <t>Practitioner.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient"/&gt;</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -527,7 +527,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -545,7 +545,7 @@
     <t>Practitioner.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -570,7 +570,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -598,13 +598,13 @@
     <t>npislice</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/sid/us-npi"/&gt;</t>
+    <t>http://hl7.org/fhir/sid/us-npi</t>
   </si>
   <si>
     <t>Practitioner.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[]} {[]}
+    <t xml:space="preserve">HumanName
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -875,7 +875,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -931,7 +931,7 @@
     <t>Practitioner.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -956,7 +956,7 @@
     <t>Practitioner.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -978,7 +978,7 @@
     <t>Practitioner.qualification</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1164,67 +1164,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
